--- a/GUA work/Pt(100)/plot_GUA area.xlsx
+++ b/GUA work/Pt(100)/plot_GUA area.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Documents\IRAS\GUA work\Pt(100)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10172" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -359,6 +359,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8081-4262-94E7-65E90F41253D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -479,6 +484,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8081-4262-94E7-65E90F41253D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -613,6 +623,150 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8081-4262-94E7-65E90F41253D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>GUA intersect</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18046701830002879"/>
+                  <c:y val="7.7602925774119827E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>223.034305929223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339.277681832702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>465.17623466400698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>394.80304815039102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>646.54592365087206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>771.40879700764901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8081-4262-94E7-65E90F41253D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -672,7 +826,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -798,7 +951,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -907,7 +1059,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -990,6 +1141,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1907485344"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1002,7 +1154,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1070,7 +1221,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1208,6 +1359,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4889-48C3-B543-099F75C73989}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1342,6 +1498,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4889-48C3-B543-099F75C73989}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1402,7 +1563,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1520,7 +1680,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1618,6 +1777,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1993269824"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1630,7 +1790,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1698,7 +1857,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1712,7 +1871,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1867,6 +2025,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-809B-4450-9571-0B7DC07BCD77}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1927,7 +2090,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2045,7 +2207,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2126,7 +2287,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3866,19 +4026,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>275704</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>390004</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>174568</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3896,19 +4062,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>171796</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>286096</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>93864</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3927,20 +4099,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620684</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>79663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>94904</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4222,14 +4400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
